--- a/biology/Zoologie/Conure_à_tête_bleue/Conure_à_tête_bleue.xlsx
+++ b/biology/Zoologie/Conure_à_tête_bleue/Conure_à_tête_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Conure_à_tête_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thectocercus acuticaudatus
 La Conure à tête bleue (Psittacara acuticaudatus ou Thectocercus acuticaudatus, anciennement Aratinga acuticaudata) est une espèce d'oiseaux au plumage à dominante verte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Conure_à_tête_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 37 cm de longueur pour une envergure de 61 cm et une masse de 200 g.
 Le plumage de la Conure à tête bleue est vert, plus vif sur les parties supérieures et plus nuancé sur les inférieures. La face de cet oiseau est colorée de bleu, d'où le nom spécifique, plus ou moins étendu selon l'âge, la sous-espèce et l'individu. Les cercles oculaires de peau nue sont blancs. La mandibule supérieure est marron rougeâtre avec l'extrémité noire, cette dernière couleur étant celle de la mandibule inférieure. Les pattes sont roses.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Conure_à_tête_bleue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau peuple désormais la Floride[1].La Conure à tête bleue se trouve dans une grande partie de l’Amérique du Sud, séparée en plusieurs populations différentes, à l’est des Andes, au nord-est de la Colombie, au nord du Venezuela, et du nord-est du Brésil au nord de l’Argentine. Cette espèce est visible jusqu’à 2600 mètres d’altitude.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau peuple désormais la Floride.La Conure à tête bleue se trouve dans une grande partie de l’Amérique du Sud, séparée en plusieurs populations différentes, à l’est des Andes, au nord-est de la Colombie, au nord du Venezuela, et du nord-est du Brésil au nord de l’Argentine. Cette espèce est visible jusqu’à 2600 mètres d’altitude.
 Il existe des populations férales en Floride et au sud de la Californie.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conure_%C3%A0_t%C3%AAte_bleue</t>
+          <t>Conure_à_tête_bleue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant une étude phylogénique de Remsen et al. (2013), le genre Aratinga est entièrement redéfini pour être monophylétique. Le Congrès ornithologique international répercute ces changements dans sa classification de référence version 3.5 (2013), et la Conure à tête bleue est déplacée vers le genre Thectocercus, qui est monotypique.
 </t>
